--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4654CCB-4B53-47B0-BC0A-7A1DC5F847B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92D2DE-2335-48EA-8F9D-F14EBD218AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B47C108-508D-4DC7-9465-8F9286B2BDEE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -45,22 +45,10 @@
     <t>SuperSecretPassword!</t>
   </si>
   <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>smith</t>
-  </si>
-  <si>
     <t>jhon</t>
   </si>
   <si>
     <t>valid</t>
-  </si>
-  <si>
-    <t>Super</t>
-  </si>
-  <si>
-    <t>tom</t>
   </si>
 </sst>
 </file>
@@ -423,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8FA53D-84EC-4269-A98C-CECD43FA472A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,7 +436,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -465,29 +453,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -495,8 +461,6 @@
     <hyperlink ref="A2" r:id="rId1" display="anubhav@gmail.com" xr:uid="{738ECDD3-F314-4CDA-9811-314954F62A8C}"/>
     <hyperlink ref="B2" r:id="rId2" display="test@123" xr:uid="{5DDA4B7C-39D6-4E34-938C-A0E0270CA01B}"/>
     <hyperlink ref="A3" r:id="rId3" display="abc@gmail.com" xr:uid="{59311EE7-03A4-4F30-B158-EEB208CDF1F8}"/>
-    <hyperlink ref="A4" r:id="rId4" display="cde@gmail.com" xr:uid="{6CA6B5AB-760E-4C63-9BDF-E5E1E5B597B9}"/>
-    <hyperlink ref="A5" r:id="rId5" display="efg@gmail.com" xr:uid="{8BA50F22-C90A-446E-B1C4-723F6D5A35CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92D2DE-2335-48EA-8F9D-F14EBD218AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB47806-5676-4088-A8B3-69332B40EF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B47C108-508D-4DC7-9465-8F9286B2BDEE}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,31 +436,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="anubhav@gmail.com" xr:uid="{738ECDD3-F314-4CDA-9811-314954F62A8C}"/>
-    <hyperlink ref="B2" r:id="rId2" display="test@123" xr:uid="{5DDA4B7C-39D6-4E34-938C-A0E0270CA01B}"/>
-    <hyperlink ref="A3" r:id="rId3" display="abc@gmail.com" xr:uid="{59311EE7-03A4-4F30-B158-EEB208CDF1F8}"/>
+    <hyperlink ref="A2" r:id="rId1" display="abc@gmail.com" xr:uid="{59311EE7-03A4-4F30-B158-EEB208CDF1F8}"/>
+    <hyperlink ref="A3" r:id="rId2" display="anubhav@gmail.com" xr:uid="{A9742097-1516-4E83-B29E-AAD7D7AA062B}"/>
+    <hyperlink ref="B3" r:id="rId3" display="test@123" xr:uid="{B8910BD1-3B3C-4C97-826F-D04C8152FAB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
